--- a/results/gurobi_cplex_comparison/seed_30_k_20.xlsx
+++ b/results/gurobi_cplex_comparison/seed_30_k_20.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.006</v>
+        <v>0.548</v>
       </c>
       <c r="F2">
-        <v>0.019</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.013</v>
+        <v>0.788</v>
       </c>
       <c r="F3">
-        <v>0.028</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.012</v>
+        <v>1.073</v>
       </c>
       <c r="F4">
-        <v>0.032</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.019</v>
+        <v>1.398</v>
       </c>
       <c r="F5">
-        <v>0.036</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.031</v>
+        <v>1.783</v>
       </c>
       <c r="F6">
-        <v>0.045</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.015</v>
+        <v>2.176</v>
       </c>
       <c r="F7">
-        <v>0.041</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.021</v>
+        <v>2.67</v>
       </c>
       <c r="F8">
-        <v>0.046</v>
+        <v>0.618</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.032</v>
+        <v>3.148</v>
       </c>
       <c r="F9">
-        <v>0.053</v>
+        <v>0.758</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.054</v>
+        <v>3.723</v>
       </c>
       <c r="F10">
-        <v>0.128</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.08599999999999999</v>
+        <v>4.368</v>
       </c>
       <c r="F11">
-        <v>78.104</v>
+        <v>80.27</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.094</v>
+        <v>5.035</v>
       </c>
       <c r="F12">
-        <v>93.874</v>
+        <v>109.741</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.128</v>
+        <v>5.684</v>
       </c>
       <c r="F13">
-        <v>139.507</v>
+        <v>85.96599999999999</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.094</v>
+        <v>6.416</v>
       </c>
       <c r="F14">
-        <v>86.139</v>
+        <v>70.69499999999999</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.035</v>
+        <v>7.114</v>
       </c>
       <c r="F15">
-        <v>78.54300000000001</v>
+        <v>85.333</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.051</v>
+        <v>8.02</v>
       </c>
       <c r="F16">
-        <v>134.381</v>
+        <v>74.621</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.108</v>
+        <v>8.895</v>
       </c>
       <c r="F17">
-        <v>85.65900000000001</v>
+        <v>58.977</v>
       </c>
     </row>
   </sheetData>
